--- a/xlsx/FR/score_footprint_pc_FR.xlsx
+++ b/xlsx/FR/score_footprint_pc_FR.xlsx
@@ -17,25 +17,25 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">Distance to true ranking of&lt;br&gt;regional per capita footprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
   </si>
 </sst>
 </file>
@@ -374,67 +374,53 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.204944555347326</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.205837312486812</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.244554338774632</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.14695304540744</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.248694436345023</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.247343639463329</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.194323807750308</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.142581157336412</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.215204024594746</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.301806669533019</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3137</v>
+      <c r="B7" t="n">
+        <v>0.0629610375556999</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/score_footprint_pc_FR.xlsx
+++ b/xlsx/FR/score_footprint_pc_FR.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
   </si>
 </sst>
 </file>
@@ -380,7 +383,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.205837312486812</v>
+        <v>0.192460753428049</v>
       </c>
     </row>
     <row r="3">
@@ -388,7 +391,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.14695304540744</v>
+        <v>0.146974328927622</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +399,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.247343639463329</v>
+        <v>0.276387526109799</v>
       </c>
     </row>
     <row r="5">
@@ -404,7 +407,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.194323807750308</v>
+        <v>0.167219333645833</v>
       </c>
     </row>
     <row r="6">
@@ -412,7 +415,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.142581157336412</v>
+        <v>0.152471662289136</v>
       </c>
     </row>
     <row r="7">
@@ -420,7 +423,15 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0629610375556999</v>
+        <v>0.0632014107733319</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.00128498482622908</v>
       </c>
     </row>
   </sheetData>
